--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
   <si>
     <t>BST</t>
   </si>
@@ -38,44 +39,86 @@
     <t>Tree Size</t>
   </si>
   <si>
-    <t>Avg. Succesful</t>
+    <t>Test 1</t>
   </si>
   <si>
-    <t>Avg. Unsuccesful</t>
+    <t>Test 2</t>
   </si>
   <si>
-    <t>Size(Height)</t>
+    <t>Test 3</t>
   </si>
   <si>
-    <t>Size(Height)(Leaves)</t>
+    <t>Test 4</t>
   </si>
   <si>
-    <t>10 (-)(-)</t>
+    <t>Test 5</t>
   </si>
   <si>
-    <t>100(-)(-)</t>
+    <t>Test 6</t>
   </si>
   <si>
-    <t>1000(-)(-)</t>
+    <t>Test 7</t>
   </si>
   <si>
-    <t>10(-)</t>
+    <t>Test 8</t>
   </si>
   <si>
-    <t>100(-)</t>
+    <t>Test 9</t>
   </si>
   <si>
-    <t>1000(-)</t>
+    <t>Test 10</t>
   </si>
   <si>
-    <t>Size</t>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Leaves</t>
+  </si>
+  <si>
+    <t>Comparisons</t>
+  </si>
+  <si>
+    <t>SUCCESSFUL SEARCHES</t>
+  </si>
+  <si>
+    <t>UNSUCCESSFUL SEARCHES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 1 </t>
+  </si>
+  <si>
+    <t>Size (search value)</t>
+  </si>
+  <si>
+    <t>10 (5)</t>
+  </si>
+  <si>
+    <t>10 (11)</t>
+  </si>
+  <si>
+    <t>5000 (1111)</t>
+  </si>
+  <si>
+    <t>Average Comparisons</t>
+  </si>
+  <si>
+    <t>5000 (5001)</t>
+  </si>
+  <si>
+    <t>Average Height</t>
+  </si>
+  <si>
+    <t>50000 (30000)</t>
+  </si>
+  <si>
+    <t>50000 (50001)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +134,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,17 +190,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,20 +496,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M7"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M3:M4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
@@ -425,13 +534,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -440,47 +549,2257 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2">
-        <v>10</v>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="L5" s="2">
-        <v>100</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+        <v>5000</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
         <v>5</v>
       </c>
+      <c r="D7" s="4">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>14</v>
+      </c>
+      <c r="I7" s="4">
+        <v>18</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1659</v>
+      </c>
+      <c r="E8" s="4">
+        <v>16632</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="9">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9">
+        <v>13</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4">
+        <v>36</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>14</v>
+      </c>
+      <c r="I11" s="4">
+        <v>18</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1663</v>
+      </c>
+      <c r="E12" s="4">
+        <v>16672</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>24</v>
+      </c>
+      <c r="E13" s="9">
+        <v>19</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9">
+        <v>4</v>
+      </c>
+      <c r="H13" s="9">
+        <v>11</v>
+      </c>
+      <c r="I13" s="9">
+        <v>16</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>14</v>
+      </c>
+      <c r="I15" s="4">
+        <v>18</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1658</v>
+      </c>
+      <c r="E16" s="4">
+        <v>16574</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9">
+        <v>19</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9">
+        <v>14</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9">
+        <v>1</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4">
+        <v>36</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4">
+        <v>14</v>
+      </c>
+      <c r="I19" s="4">
+        <v>18</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1654</v>
+      </c>
+      <c r="E20" s="4">
+        <v>16655</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8">
+        <v>18</v>
+      </c>
+      <c r="E21" s="8">
+        <v>16</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>10</v>
+      </c>
+      <c r="I21" s="8">
+        <v>16</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>28</v>
+      </c>
+      <c r="E23" s="4">
+        <v>37</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>3</v>
+      </c>
+      <c r="H23" s="4">
+        <v>14</v>
+      </c>
+      <c r="I23" s="4">
+        <v>18</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1659</v>
+      </c>
+      <c r="E24" s="4">
+        <v>16699</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="9">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9">
+        <v>23</v>
+      </c>
+      <c r="E25" s="9">
+        <v>26</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
+        <v>4</v>
+      </c>
+      <c r="H25" s="9">
+        <v>11</v>
+      </c>
+      <c r="I25" s="9">
+        <v>17</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9">
+        <v>1</v>
+      </c>
+      <c r="L25" s="9">
+        <v>1</v>
+      </c>
+      <c r="M25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4">
+        <v>6</v>
+      </c>
+      <c r="D27" s="4">
+        <v>31</v>
+      </c>
+      <c r="E27" s="4">
+        <v>42</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>14</v>
+      </c>
+      <c r="I27" s="4">
+        <v>18</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1658</v>
+      </c>
+      <c r="E28" s="4">
+        <v>16645</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="9">
+        <v>7</v>
+      </c>
+      <c r="D29" s="9">
+        <v>22</v>
+      </c>
+      <c r="E29" s="9">
+        <v>24</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9">
+        <v>4</v>
+      </c>
+      <c r="H29" s="9">
+        <v>11</v>
+      </c>
+      <c r="I29" s="9">
+        <v>16</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4">
+        <v>25</v>
+      </c>
+      <c r="E31" s="4">
+        <v>34</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4">
+        <v>14</v>
+      </c>
+      <c r="I31" s="4">
+        <v>18</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="4">
+        <v>5</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1649</v>
+      </c>
+      <c r="E32" s="4">
+        <v>16680</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="9">
+        <v>3</v>
+      </c>
+      <c r="D33" s="9">
+        <v>12</v>
+      </c>
+      <c r="E33" s="9">
+        <v>19</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9">
+        <v>3</v>
+      </c>
+      <c r="H33" s="9">
+        <v>12</v>
+      </c>
+      <c r="I33" s="9">
+        <v>16</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1</v>
+      </c>
+      <c r="M33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="4">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4">
+        <v>27</v>
+      </c>
+      <c r="E35" s="4">
+        <v>34</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4">
+        <v>14</v>
+      </c>
+      <c r="I35" s="4">
+        <v>18</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="4">
+        <v>4</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1663</v>
+      </c>
+      <c r="E36" s="4">
+        <v>16690</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="9">
+        <v>6</v>
+      </c>
+      <c r="D37" s="9">
+        <v>13</v>
+      </c>
+      <c r="E37" s="9">
+        <v>15</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>4</v>
+      </c>
+      <c r="H37" s="9">
+        <v>11</v>
+      </c>
+      <c r="I37" s="9">
+        <v>15</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9">
+        <v>1</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1</v>
+      </c>
+      <c r="M37" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="4">
+        <v>5</v>
+      </c>
+      <c r="D39" s="4">
+        <v>31</v>
+      </c>
+      <c r="E39" s="4">
+        <v>33</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4">
+        <v>3</v>
+      </c>
+      <c r="H39" s="4">
+        <v>14</v>
+      </c>
+      <c r="I39" s="4">
+        <v>18</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="4">
+        <v>4</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1646</v>
+      </c>
+      <c r="E40" s="4">
+        <v>16718</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="9">
+        <v>3</v>
+      </c>
+      <c r="D41" s="9">
+        <v>17</v>
+      </c>
+      <c r="E41" s="9">
+        <v>21</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9">
+        <v>13</v>
+      </c>
+      <c r="I41" s="9">
+        <v>16</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9">
+        <v>1</v>
+      </c>
+      <c r="L41" s="9">
+        <v>1</v>
+      </c>
+      <c r="M41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="4">
+        <v>4</v>
+      </c>
+      <c r="D43" s="4">
+        <v>26</v>
+      </c>
+      <c r="E43" s="4">
+        <v>35</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4">
+        <v>3</v>
+      </c>
+      <c r="H43" s="4">
+        <v>14</v>
+      </c>
+      <c r="I43" s="4">
+        <v>18</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="4">
+        <v>5</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1659</v>
+      </c>
+      <c r="E44" s="4">
+        <v>16640</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="9">
+        <v>2</v>
+      </c>
+      <c r="D45" s="9">
+        <v>10</v>
+      </c>
+      <c r="E45" s="9">
+        <v>19</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9">
+        <v>3</v>
+      </c>
+      <c r="H45" s="9">
+        <v>11</v>
+      </c>
+      <c r="I45" s="9">
+        <v>15</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9">
+        <v>1</v>
+      </c>
+      <c r="L45" s="9">
+        <v>1</v>
+      </c>
+      <c r="M45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="5">
+        <f>AVERAGE(C9,C13,C17,C21,C25,C29,C33,C37,C41,C45)</f>
+        <v>3.9</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" ref="D47:E47" si="0">AVERAGE(D9,D13,D17,D21,D25,D29,D33,D37,D41,D45)</f>
+        <v>18.5</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="0"/>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5">
+        <f>AVERAGE(G9,G13,G17,G21,G25,G29,G33,G37,G41,G45)</f>
+        <v>2.9</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" ref="H47:I47" si="1">AVERAGE(H9,H13,H17,H21,H25,H29,H33,H37,H41,H45)</f>
+        <v>11.4</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="1"/>
+        <v>15.4</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5">
+        <f>AVERAGE(K9,K13,K17,K21,K25,K29,K33,K37,K41,K45)</f>
+        <v>1</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" ref="L47:M47" si="2">AVERAGE(L9,L13,L17,L21,L25,L29,L33,L37,L41,L45)</f>
+        <v>1</v>
+      </c>
+      <c r="M47" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>14</v>
+      </c>
+      <c r="I7" s="4">
+        <v>18</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1667</v>
+      </c>
+      <c r="E8" s="4">
+        <v>16725</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9">
+        <v>18</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
+        <v>6</v>
+      </c>
+      <c r="H9" s="9">
+        <v>26</v>
+      </c>
+      <c r="I9" s="9">
+        <v>28</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>14</v>
+      </c>
+      <c r="I11" s="4">
+        <v>18</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1662</v>
+      </c>
+      <c r="E12" s="4">
+        <v>16603</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9">
+        <v>24</v>
+      </c>
+      <c r="E13" s="9">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9">
+        <v>6</v>
+      </c>
+      <c r="H13" s="9">
+        <v>28</v>
+      </c>
+      <c r="I13" s="9">
+        <v>34</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4">
+        <v>37</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>14</v>
+      </c>
+      <c r="I15" s="4">
+        <v>18</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1684</v>
+      </c>
+      <c r="E16" s="4">
+        <v>16750</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>20</v>
+      </c>
+      <c r="E17" s="9">
+        <v>18</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>8</v>
+      </c>
+      <c r="H17" s="9">
+        <v>26</v>
+      </c>
+      <c r="I17" s="9">
+        <v>32</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4">
+        <v>27</v>
+      </c>
+      <c r="E19" s="4">
+        <v>42</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4">
+        <v>14</v>
+      </c>
+      <c r="I19" s="4">
+        <v>18</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1673</v>
+      </c>
+      <c r="E20" s="4">
+        <v>16752</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>16</v>
+      </c>
+      <c r="E21" s="9">
+        <v>12</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9">
+        <v>6</v>
+      </c>
+      <c r="H21" s="9">
+        <v>22</v>
+      </c>
+      <c r="I21" s="9">
+        <v>26</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>26</v>
+      </c>
+      <c r="E23" s="4">
+        <v>36</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>3</v>
+      </c>
+      <c r="H23" s="4">
+        <v>14</v>
+      </c>
+      <c r="I23" s="4">
+        <v>18</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1649</v>
+      </c>
+      <c r="E24" s="4">
+        <v>16576</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="9">
+        <v>6</v>
+      </c>
+      <c r="D25" s="9">
+        <v>20</v>
+      </c>
+      <c r="E25" s="9">
+        <v>18</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
+        <v>6</v>
+      </c>
+      <c r="H25" s="9">
+        <v>22</v>
+      </c>
+      <c r="I25" s="9">
+        <v>30</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4">
+        <v>26</v>
+      </c>
+      <c r="E27" s="4">
+        <v>38</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>14</v>
+      </c>
+      <c r="I27" s="4">
+        <v>18</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1666</v>
+      </c>
+      <c r="E28" s="4">
+        <v>16623</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="9">
+        <v>6</v>
+      </c>
+      <c r="D29" s="9">
+        <v>14</v>
+      </c>
+      <c r="E29" s="9">
+        <v>20</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9">
+        <v>6</v>
+      </c>
+      <c r="H29" s="9">
+        <v>26</v>
+      </c>
+      <c r="I29" s="9">
+        <v>30</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4">
+        <v>28</v>
+      </c>
+      <c r="E31" s="4">
+        <v>33</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4">
+        <v>14</v>
+      </c>
+      <c r="I31" s="4">
+        <v>18</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1655</v>
+      </c>
+      <c r="E32" s="4">
+        <v>16640</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="9">
+        <v>6</v>
+      </c>
+      <c r="D33" s="9">
+        <v>28</v>
+      </c>
+      <c r="E33" s="9">
+        <v>24</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9">
+        <v>8</v>
+      </c>
+      <c r="H33" s="9">
+        <v>22</v>
+      </c>
+      <c r="I33" s="9">
+        <v>32</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4</v>
+      </c>
+      <c r="D35" s="4">
+        <v>29</v>
+      </c>
+      <c r="E35" s="4">
+        <v>42</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4">
+        <v>14</v>
+      </c>
+      <c r="I35" s="4">
+        <v>18</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1643</v>
+      </c>
+      <c r="E36" s="4">
+        <v>16631</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="9">
+        <v>8</v>
+      </c>
+      <c r="D37" s="9">
+        <v>20</v>
+      </c>
+      <c r="E37" s="9">
+        <v>22</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>6</v>
+      </c>
+      <c r="H37" s="9">
+        <v>26</v>
+      </c>
+      <c r="I37" s="9">
+        <v>30</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="4">
+        <v>6</v>
+      </c>
+      <c r="D39" s="4">
+        <v>26</v>
+      </c>
+      <c r="E39" s="4">
+        <v>34</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4">
+        <v>3</v>
+      </c>
+      <c r="H39" s="4">
+        <v>14</v>
+      </c>
+      <c r="I39" s="4">
+        <v>18</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1675</v>
+      </c>
+      <c r="E40" s="4">
+        <v>16714</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="9">
+        <v>4</v>
+      </c>
+      <c r="D41" s="9">
+        <v>26</v>
+      </c>
+      <c r="E41" s="9">
+        <v>28</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>6</v>
+      </c>
+      <c r="H41" s="9">
+        <v>28</v>
+      </c>
+      <c r="I41" s="9">
+        <v>36</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9">
+        <v>0</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3</v>
+      </c>
+      <c r="D43" s="4">
+        <v>31</v>
+      </c>
+      <c r="E43" s="4">
+        <v>36</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4">
+        <v>3</v>
+      </c>
+      <c r="H43" s="4">
+        <v>14</v>
+      </c>
+      <c r="I43" s="4">
+        <v>18</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="4">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1696</v>
+      </c>
+      <c r="E44" s="4">
+        <v>16695</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="9">
+        <v>6</v>
+      </c>
+      <c r="D45" s="9">
+        <v>24</v>
+      </c>
+      <c r="E45" s="9">
+        <v>16</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9">
+        <v>6</v>
+      </c>
+      <c r="H45" s="9">
+        <v>24</v>
+      </c>
+      <c r="I45" s="9">
+        <v>30</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="5">
+        <f>AVERAGE(C9,C13,C17,C21,C25,C29,C33,C37,C41,C45)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" ref="D47:M47" si="0">AVERAGE(D9,D13,D17,D21,D25,D29,D33,D37,D41,D45)</f>
+        <v>21</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="0"/>
+        <v>19.8</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="0"/>
+        <v>30.8</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <f>AVERAGE(C7,C11,C15,C19,C23,C27,C31,C35,C39,C43)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:M48" si="1">AVERAGE(D7,D11,D15,D19,D23,D27,D31,D35,D39,D43)</f>
+        <v>27.6</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>